--- a/biology/Médecine/1897_en_santé_et_médecine/1897_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1897_en_santé_et_médecine/1897_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1897_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1897_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1897 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1897_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1897_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>30 mars : le laryngologiste allemand Gustav Killian pratique la première bronchoscopies[1].
-9 juin : décret de fondation de l’hôpital civil français à Tunis, futur hôpital Charles-Nicolle, inauguré le 21 novembre 1898[2].
-10 août : le chimiste allemand Felix Hoffmann, employé par la firme pharmaceutique Bayer, synthétise à partir de l'élément actif de l'écorce de saule l'acide acétylsalicylique (aspirine)[3].
-20 août : le médecin militaire britannique sir Ronald Ross découvre la présence du parasite de la malaria (un oocyste) chez le moustique anophèle à l’hôpital de Secunderabad[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30 mars : le laryngologiste allemand Gustav Killian pratique la première bronchoscopies.
+9 juin : décret de fondation de l’hôpital civil français à Tunis, futur hôpital Charles-Nicolle, inauguré le 21 novembre 1898.
+10 août : le chimiste allemand Felix Hoffmann, employé par la firme pharmaceutique Bayer, synthétise à partir de l'élément actif de l'écorce de saule l'acide acétylsalicylique (aspirine).
+20 août : le médecin militaire britannique sir Ronald Ross découvre la présence du parasite de la malaria (un oocyste) chez le moustique anophèle à l’hôpital de Secunderabad.
 1er septembre : inauguration de l’hôpital de Saint-Loup à Pompaples (canton de Vaud).
-17 décembre : Ernest Duchesne, élève de l'École de santé militaire de Lyon, soutient sa thèse de médecine dans laquelle il décrit les propriétés de la pénicilline[5].
+17 décembre : Ernest Duchesne, élève de l'École de santé militaire de Lyon, soutient sa thèse de médecine dans laquelle il décrit les propriétés de la pénicilline.
 Fondation à Lyon de l'Institut Mérieux.
-Le vétérinaire danois Bernhard Bang isole la bactérie Brucella abortus comme agent de la brucellose (maladie de Bang)[6].</t>
+Le vétérinaire danois Bernhard Bang isole la bactérie Brucella abortus comme agent de la brucellose (maladie de Bang).</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1897_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1897_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>12 août : Jean-Louis Goarnisson (mort en 1981), prêtre, médecin et homme politique.
 9 novembre : Jacques Tréfouël (mort en 1977), chimiste français, directeur de l’Institut Pasteur.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1897_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1897_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>9 avril : Jules Maisonneuve (né en 1809), chirurgien français.
 28 août : John Braxton Hicks (né en 1823), médecin obstétricien anglais.
